--- a/Pull Request Here/[sd] Chicken Nest (Continued) - 2019031353/[sd] Chicken Nest (Continued) - 2019031353.xlsx
+++ b/Pull Request Here/[sd] Chicken Nest (Continued) - 2019031353/[sd] Chicken Nest (Continued) - 2019031353.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\[sd] Chicken Nest (Continued) - 2019031353\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAE0955-7B01-46A3-894E-40D0CA59D6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27B2EC0-5C19-4399-B4A6-129351E402E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>sd_chickennest.description</t>
   </si>
   <si>
-    <t>A small nest for animals to sleep in. Fits smaller animals like chickens, cats, or small dogs. You can switch textures by rotating it.</t>
-  </si>
-  <si>
     <t>닭 둥지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -66,7 +63,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>작은 동물들이 잠을 잘 수 있는 둥지입니다. 닭, 고양이, 또는 요크셔 같이 작거나 어린 동물들에게 적합합니다.\n\n 회전하여 스타일을 변경할 수 있습니다.</t>
+    <t>작은 동물이 잘 수 있는 상자입니다. 닭, 고양이, 요크셔같이 작거나 어린 동물까지 들어갈 수 있습니다.\n\n 회전하여 스타일을 변경할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A small nest for animals to sleep in. Fits smaller animals like chickens, cats, or small dogs. You can switch textures by rotating it.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +438,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -469,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -483,10 +484,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pull Request Here/[sd] Chicken Nest (Continued) - 2019031353/[sd] Chicken Nest (Continued) - 2019031353.xlsx
+++ b/Pull Request Here/[sd] Chicken Nest (Continued) - 2019031353/[sd] Chicken Nest (Continued) - 2019031353.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27B2EC0-5C19-4399-B4A6-129351E402E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDA2141-02CC-4542-9FD1-0B5A252FB81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,11 +63,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>작은 동물이 잘 수 있는 상자입니다. 닭, 고양이, 요크셔같이 작거나 어린 동물까지 들어갈 수 있습니다.\n\n 회전하여 스타일을 변경할 수 있습니다.</t>
+    <t>A small nest for animals to sleep in. Fits smaller animals like chickens, cats, or small dogs. You can switch textures by rotating it.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A small nest for animals to sleep in. Fits smaller animals like chickens, cats, or small dogs. You can switch textures by rotating it.</t>
+    <t>작은 동물이 잘 수 있는 둥지입니다. 닭, 고양이, 요크셔같이 작거나 어린 동물까지 들어갈 수 있습니다.\n\n 회전하여 스타일을 변경할 수 있습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +484,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
